--- a/main/StructureDefinition-bc-metadata-parameters-in.xlsx
+++ b/main/StructureDefinition-bc-metadata-parameters-in.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:40:13+00:00</t>
+    <t>2024-10-07T22:34:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-metadata-parameters-in.xlsx
+++ b/main/StructureDefinition-bc-metadata-parameters-in.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T22:34:38+00:00</t>
+    <t>2024-10-11T20:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-metadata-parameters-in.xlsx
+++ b/main/StructureDefinition-bc-metadata-parameters-in.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="184">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:53:55+00:00</t>
+    <t>2024-10-11T23:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Parameters profile for BC meta data - incoming messages.</t>
+    <t>Parameters profile for BC meta data - incoming messages. This profile is also intended to force the inclusion of specific parameters for the related Parameters.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -360,9 +360,6 @@
     <t>Parameters.parameter</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
@@ -532,50 +529,6 @@
   </si>
   <si>
     <t>Parameters.parameter:messageId.part</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime</t>
-  </si>
-  <si>
-    <t>messageDateTime</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.id</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.extension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.modifierExtension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.name</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.value[x]:valueDateTime</t>
-  </si>
-  <si>
-    <t>valueDateTime</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.resource</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.part</t>
   </si>
   <si>
     <t>Parameters.parameter:identifiersOnly</t>
@@ -951,7 +904,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL47"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -960,9 +913,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.3203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.08203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.20703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.42578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1666,7 +1619,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -1681,13 +1634,13 @@
         <v>84</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1726,16 +1679,16 @@
         <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AC7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AD7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>111</v>
@@ -1750,7 +1703,7 @@
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -1761,10 +1714,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1787,13 +1740,13 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1844,7 +1797,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -1867,14 +1820,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1893,16 +1846,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1952,7 +1905,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -1964,7 +1917,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -1975,14 +1928,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2001,19 +1954,19 @@
         <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2062,7 +2015,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2074,21 +2027,21 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2111,13 +2064,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2168,7 +2121,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>83</v>
@@ -2191,10 +2144,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2217,13 +2170,13 @@
         <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2274,7 +2227,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2283,7 +2236,7 @@
         <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>95</v>
@@ -2297,10 +2250,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2323,16 +2276,16 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2382,7 +2335,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2391,7 +2344,7 @@
         <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
@@ -2405,10 +2358,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2434,13 +2387,13 @@
         <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2490,7 +2443,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2513,13 +2466,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>111</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>74</v>
@@ -2541,13 +2494,13 @@
         <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2610,7 +2563,7 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -2621,10 +2574,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2647,13 +2600,13 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2704,7 +2657,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -2727,14 +2680,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2753,16 +2706,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2812,7 +2765,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -2824,7 +2777,7 @@
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -2835,14 +2788,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -2861,19 +2814,19 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -2922,7 +2875,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -2934,21 +2887,21 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2971,13 +2924,13 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2989,7 +2942,7 @@
         <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>74</v>
@@ -3028,7 +2981,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>83</v>
@@ -3051,10 +3004,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3077,13 +3030,13 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3134,7 +3087,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3143,7 +3096,7 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>95</v>
@@ -3157,10 +3110,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3183,16 +3136,16 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3242,7 +3195,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3251,7 +3204,7 @@
         <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
@@ -3265,10 +3218,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3294,13 +3247,13 @@
         <v>74</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3350,7 +3303,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3373,20 +3326,20 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>111</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>83</v>
@@ -3401,13 +3354,13 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3470,7 +3423,7 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -3481,10 +3434,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3507,13 +3460,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3564,7 +3517,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3587,14 +3540,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3613,16 +3566,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3672,7 +3625,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -3684,7 +3637,7 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -3695,14 +3648,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -3721,19 +3674,19 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -3782,7 +3735,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -3794,21 +3747,21 @@
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3831,13 +3784,13 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3849,7 +3802,7 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>74</v>
@@ -3888,7 +3841,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>83</v>
@@ -3911,10 +3864,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3922,7 +3875,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
@@ -3937,13 +3890,13 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3982,17 +3935,19 @@
         <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4001,7 +3956,7 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>95</v>
@@ -4015,26 +3970,24 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>74</v>
@@ -4043,15 +3996,17 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4100,7 +4055,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4109,10 +4064,10 @@
         <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4123,10 +4078,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4149,16 +4104,16 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4208,19 +4163,19 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4231,12 +4186,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>74</v>
       </c>
@@ -4245,10 +4202,10 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>74</v>
@@ -4257,17 +4214,15 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -4316,7 +4271,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4328,7 +4283,7 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4339,14 +4294,12 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>74</v>
       </c>
@@ -4358,22 +4311,22 @@
         <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4424,44 +4377,44 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -4473,15 +4426,17 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -4530,19 +4485,19 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -4553,14 +4508,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4573,24 +4528,26 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M34" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -4638,7 +4595,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -4650,57 +4607,53 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -4709,7 +4662,7 @@
         <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>74</v>
@@ -4748,33 +4701,33 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4782,13 +4735,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>74</v>
@@ -4797,13 +4750,13 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4815,7 +4768,7 @@
         <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>74</v>
@@ -4854,16 +4807,16 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>95</v>
@@ -4877,10 +4830,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4891,7 +4844,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -4903,15 +4856,17 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -4960,7 +4915,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -4969,10 +4924,10 @@
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -4983,10 +4938,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5009,16 +4964,16 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5068,19 +5023,19 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5089,976 +5044,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL47">
+  <autoFilter ref="A1:AL38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6068,7 +5055,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI46">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/StructureDefinition-bc-metadata-parameters-in.xlsx
+++ b/main/StructureDefinition-bc-metadata-parameters-in.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:14:19+00:00</t>
+    <t>2024-10-11T23:23:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-metadata-parameters-in.xlsx
+++ b/main/StructureDefinition-bc-metadata-parameters-in.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:23:09+00:00</t>
+    <t>2024-10-11T23:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-metadata-parameters-in.xlsx
+++ b/main/StructureDefinition-bc-metadata-parameters-in.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:26:29+00:00</t>
+    <t>2025-08-27T22:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -913,15 +913,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.08203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.42578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.50390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.3671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -932,24 +932,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="35.72265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="45.6484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="30.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="39.13671875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
